--- a/Analiza granicnih vrijednosti.xlsx
+++ b/Analiza granicnih vrijednosti.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kenoa\Desktop\Github\Formalne-Metode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{507001F8-CE55-46C0-92BC-8FE5DBC7D80D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8420009-F21B-41E4-9C98-57098006AD37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -190,14 +190,14 @@
   </cellStyleXfs>
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -214,6 +214,82 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>47624</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>847725</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>190499</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="TextBox 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{85519308-6E15-6D0F-E5FB-ED2CE76A5807}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5086350" y="3476624"/>
+          <a:ext cx="4552950" cy="1476375"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t>Analiza granica vrijednosti je postupak identifikacije važećih i nevažećih vrijednosti za svaki parametar kako bi se osiguralo da se svi scenariji testiranja pokrivaju i da se testira širok raspon mogućnosti.Analizirajući granice vrijednosti, osiguravamo da testovi pokrivaju ekstremne slučajeve i da sustav ispravno reagira na sve moguće kombinacije ulaznih podataka. Ovi scenariji testiranja trebaju pokriti sve particije ekvivalencije i osigurati potpunu testnu pokrivenost.</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -481,8 +557,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="D6:F17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView tabSelected="1" topLeftCell="B16" workbookViewId="0">
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -493,120 +569,120 @@
   </cols>
   <sheetData>
     <row r="6" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D6" s="1" t="s">
+      <c r="D6" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
     </row>
     <row r="7" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E7" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="F7" s="1" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="8" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="E8" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="F8" s="2" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="9" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D9" s="3" t="s">
+      <c r="D9" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="E9" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F9" s="3" t="s">
+      <c r="F9" s="2" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="10" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D10" s="3"/>
-      <c r="E10" s="3" t="s">
+      <c r="D10" s="2"/>
+      <c r="E10" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F10" s="3" t="s">
+      <c r="F10" s="2" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="11" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D11" s="3"/>
-      <c r="E11" s="3" t="s">
+      <c r="D11" s="2"/>
+      <c r="E11" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F11" s="3" t="s">
+      <c r="F11" s="2" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="12" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D12" s="3"/>
-      <c r="E12" s="3" t="s">
+      <c r="D12" s="2"/>
+      <c r="E12" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F12" s="4" t="s">
+      <c r="F12" s="3" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="13" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D13" s="3" t="s">
+      <c r="D13" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E13" s="3" t="s">
+      <c r="E13" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F13" s="3" t="s">
+      <c r="F13" s="2" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="14" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D14" s="3"/>
-      <c r="E14" s="5" t="s">
+      <c r="D14" s="2"/>
+      <c r="E14" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F14" s="3" t="s">
+      <c r="F14" s="2" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="15" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D15" s="3" t="s">
+      <c r="D15" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E15" s="3" t="s">
+      <c r="E15" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="F15" s="3" t="s">
+      <c r="F15" s="2" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="16" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D16" s="3" t="s">
+      <c r="D16" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E16" s="3" t="s">
+      <c r="E16" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F16" s="3" t="s">
+      <c r="F16" s="2" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="17" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D17" s="3"/>
-      <c r="E17" s="3" t="s">
+      <c r="D17" s="2"/>
+      <c r="E17" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F17" s="3" t="s">
+      <c r="F17" s="2" t="s">
         <v>26</v>
       </c>
     </row>
@@ -615,5 +691,6 @@
     <mergeCell ref="D6:F6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Analiza granicnih vrijednosti.xlsx
+++ b/Analiza granicnih vrijednosti.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kenoa\Desktop\Github\Formalne-Metode\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\FM vjezbe\Formalne-Metode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8420009-F21B-41E4-9C98-57098006AD37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02D77A8C-6F59-4C2F-A219-8E8C23583605}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -201,7 +201,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normalno" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -281,7 +281,31 @@
         <a:p>
           <a:r>
             <a:rPr lang="en-US"/>
-            <a:t>Analiza granica vrijednosti je postupak identifikacije važećih i nevažećih vrijednosti za svaki parametar kako bi se osiguralo da se svi scenariji testiranja pokrivaju i da se testira širok raspon mogućnosti.Analizirajući granice vrijednosti, osiguravamo da testovi pokrivaju ekstremne slučajeve i da sustav ispravno reagira na sve moguće kombinacije ulaznih podataka. Ovi scenariji testiranja trebaju pokriti sve particije ekvivalencije i osigurati potpunu testnu pokrivenost.</a:t>
+            <a:t>Analiza granica vrijednosti je postupak identifikacije važećih i nevažećih vrijednosti za svaki parametar kako bi se osiguralo da se svi scenariji testiranja pokrivaju i da se testira širok raspon mogućnosti.</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="hr-HR"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t>Analizirajući granice vrijednosti, osiguravamo da testovi pokrivaju ekstremne slučajeve i da </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="hr-HR"/>
+            <a:t>sistem</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t> ispravno reag</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="hr-HR"/>
+            <a:t>uje</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t> na sve moguće kombinacije ulaznih podataka. Ovi scenariji testiranja trebaju pokriti sve particije ekvivalencije i osigurati potpunu testnu pokrivenost.</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" sz="1100"/>
         </a:p>
@@ -557,25 +581,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="D6:F17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B16" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+    <sheetView tabSelected="1" topLeftCell="D4" zoomScale="75" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="4" max="4" width="41" customWidth="1"/>
-    <col min="5" max="5" width="63.42578125" customWidth="1"/>
+    <col min="5" max="5" width="63.453125" customWidth="1"/>
     <col min="6" max="6" width="109" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="6" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D6" s="5" t="s">
         <v>0</v>
       </c>
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
     </row>
-    <row r="7" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D7" s="1" t="s">
         <v>1</v>
       </c>
@@ -586,7 +610,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D8" s="2" t="s">
         <v>2</v>
       </c>
@@ -597,7 +621,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D9" s="2" t="s">
         <v>3</v>
       </c>
@@ -608,7 +632,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D10" s="2"/>
       <c r="E10" s="2" t="s">
         <v>15</v>
@@ -617,7 +641,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D11" s="2"/>
       <c r="E11" s="2" t="s">
         <v>16</v>
@@ -626,7 +650,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D12" s="2"/>
       <c r="E12" s="2" t="s">
         <v>17</v>
@@ -635,7 +659,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D13" s="2" t="s">
         <v>4</v>
       </c>
@@ -646,7 +670,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D14" s="2"/>
       <c r="E14" s="4" t="s">
         <v>6</v>
@@ -655,7 +679,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D15" s="2" t="s">
         <v>7</v>
       </c>
@@ -666,7 +690,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D16" s="2" t="s">
         <v>8</v>
       </c>
@@ -677,7 +701,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="17" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D17" s="2"/>
       <c r="E17" s="2" t="s">
         <v>9</v>
